--- a/biology/Botanique/Rosa_orientalis/Rosa_orientalis.xlsx
+++ b/biology/Botanique/Rosa_orientalis/Rosa_orientalis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Rosa orientalis est une espèce de plantes à fleurs de la famille des Rosaceae. C'est un rosier appartenant à la section des Caninae, originaire  d'Europe orientale : nord de l'Albanie, Grèce, et d'Asie Mineure.
 </t>
@@ -511,11 +523,13 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est un rosier nain, aux tiges couvertes de poils puis d'aiguillons.
 Les feuilles imparipennées, au-dessus vert clair et au-dessous gris, comptent 5 folioles et sont velues sur les deux faces.
-Les fleurs, de 4 cm de diamètre, isolées, de couleur rose, donnent des fruits, des cynorrhodons  ellipsoïdes, rouges, de 1,2 cm de long, qui gardent leurs sépales dressés[1].
+Les fleurs, de 4 cm de diamètre, isolées, de couleur rose, donnent des fruits, des cynorrhodons  ellipsoïdes, rouges, de 1,2 cm de long, qui gardent leurs sépales dressés.
 </t>
         </is>
       </c>
